--- a/data/trans_orig/CONS_DIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Edad-trans_orig.xlsx
@@ -775,12 +775,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62149</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68831</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3727,97 +3727,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4766</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2970</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>3789</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>181383</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>416800</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4070,97 +4070,97 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2857</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2414</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>2590</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>226511</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>312014</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>541206</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6749,12 +6749,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6764,12 +6764,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -6862,12 +6862,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169235</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -6877,12 +6877,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -7170,12 +7170,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>181007</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -7185,12 +7185,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_DIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en País Vasco</t>
+          <t>Consumo de medicamentos para la diabetes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en Andalucia</t>
+          <t>Consumo de medicamentos para la diabetes en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en C.Valenciana</t>
+          <t>Consumo de medicamentos para la diabetes en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_DIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Edad-trans_orig.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>414</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1594</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>414</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1516</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,13%</t>
         </is>
       </c>
     </row>
@@ -848,27 +848,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62394</t>
+          <t>76467</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61222</t>
+          <t>75232</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -918,27 +918,27 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>124887</t>
+          <t>142709</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>123793</t>
+          <t>141506</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>655</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>2065</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>655</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>74</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62087</t>
+          <t>67393</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>61339</t>
+          <t>65983</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62402</t>
+          <t>67973</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,87%</t>
+          <t>99,89%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>131251</t>
+          <t>142376</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>130447</t>
+          <t>140988</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>131567</t>
+          <t>142957</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>99,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,94%</t>
+          <t>99,95%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,69 +1421,69 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>320</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2193</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2566</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
           <t>2,32%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1052</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2357</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>10</t>
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>2294</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -1534,67 +1534,67 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93960</t>
+          <t>102927</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92502</t>
+          <t>101370</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94485</t>
+          <t>103640</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>97,51%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>99,69%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>109454</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>108149</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>110200</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>98,86%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
           <t>97,68%</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>99,78%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>574</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>96453</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>95148</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>97072</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>98,92%</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>97,58%</t>
-        </is>
-      </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>190413</t>
+          <t>212381</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>188900</t>
+          <t>210299</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>191349</t>
+          <t>213625</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>99,51%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>4382</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2791</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6156</t>
+          <t>6527</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2156</t>
+          <t>2555</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1371</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3695</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>6210</t>
+          <t>6936</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4910</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>8712</t>
+          <t>9660</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>135361</t>
+          <t>140396</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>133258</t>
+          <t>138251</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>136804</t>
+          <t>141987</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>135819</t>
+          <t>149989</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>134280</t>
+          <t>147871</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>136871</t>
+          <t>151173</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>271180</t>
+          <t>290385</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>268678</t>
+          <t>287661</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>273174</t>
+          <t>292411</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,35%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12651</t>
+          <t>11317</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9836</t>
+          <t>8700</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16018</t>
+          <t>14323</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4926</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3160</t>
+          <t>2411</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7142</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>17577</t>
+          <t>14994</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>14369</t>
+          <t>12047</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>21552</t>
+          <t>18574</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>114203</t>
+          <t>118265</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>110836</t>
+          <t>115259</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>117018</t>
+          <t>120882</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>142415</t>
+          <t>148239</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>140199</t>
+          <t>146446</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>144181</t>
+          <t>149504</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>256617</t>
+          <t>266504</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>252642</t>
+          <t>262924</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>259825</t>
+          <t>269451</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,72%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14486</t>
+          <t>14711</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11610</t>
+          <t>11572</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17906</t>
+          <t>17766</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9237</t>
+          <t>9429</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6971</t>
+          <t>7186</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12233</t>
+          <t>12402</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>23722</t>
+          <t>24139</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>20025</t>
+          <t>20491</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>27847</t>
+          <t>28278</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,84%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>93118</t>
+          <t>89755</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>89698</t>
+          <t>86700</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>95994</t>
+          <t>92894</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>86,54%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>105671</t>
+          <t>106351</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>102675</t>
+          <t>103378</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>107937</t>
+          <t>108594</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>89,29%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>198790</t>
+          <t>196107</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>194665</t>
+          <t>191968</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>202487</t>
+          <t>199755</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>87,16%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>90,7%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>20692</t>
+          <t>19934</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17442</t>
+          <t>16590</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24738</t>
+          <t>23369</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19674</t>
+          <t>17638</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>16436</t>
+          <t>14617</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>23720</t>
+          <t>21172</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>40366</t>
+          <t>37572</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>35425</t>
+          <t>33140</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>45806</t>
+          <t>42588</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>19,22%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>75663</t>
+          <t>69289</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>71617</t>
+          <t>65854</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>78913</t>
+          <t>72633</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>78,53%</t>
+          <t>77,66%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>74,33%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>81,41%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>114257</t>
+          <t>114674</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>110211</t>
+          <t>111140</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>117495</t>
+          <t>117695</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>86,67%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>82,29%</t>
+          <t>84,0%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>189920</t>
+          <t>183963</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>184480</t>
+          <t>178947</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>194861</t>
+          <t>188395</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>82,47%</t>
+          <t>83,04%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>85,04%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>53039</t>
+          <t>51791</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>47822</t>
+          <t>46120</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>59411</t>
+          <t>57747</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,67 +3171,67 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>37441</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>32806</t>
+          <t>30038</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>43274</t>
+          <t>40203</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>87004</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>79875</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>95019</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
           <t>5,72%</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>90480</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>82695</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>98726</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>643864</t>
+          <t>672081</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>637492</t>
+          <t>666125</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>649081</t>
+          <t>677752</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,67 +3284,67 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>719194</t>
+          <t>762342</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>713361</t>
+          <t>757353</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>723829</t>
+          <t>767518</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
+          <t>94,96%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>96,23%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>8027</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>1434425</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>1426410</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>1441554</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
           <t>94,28%</t>
         </is>
       </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>95,66%</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>8027</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>1363058</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>1354812</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>1370843</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>93,78%</t>
-        </is>
-      </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>94,75%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13384</t>
+          <t>11945</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>1830</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9236</t>
+          <t>8690</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4876</t>
+          <t>5192</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16840</t>
+          <t>16897</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,67%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>297385</t>
+          <t>298824</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>308663</t>
+          <t>308715</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,32%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>313377</t>
+          <t>313923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>320723</t>
+          <t>320783</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>616541</t>
+          <t>616484</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>628505</t>
+          <t>628189</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>99,18%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>7263</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44444</t>
+          <t>43796</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6193</t>
+          <t>6359</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16934</t>
+          <t>16086</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>15604</t>
+          <t>15066</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>49462</t>
+          <t>50264</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>582720</t>
+          <t>583368</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>620943</t>
+          <t>619901</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>387868</t>
+          <t>388716</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>398609</t>
+          <t>398443</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>98,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>982504</t>
+          <t>981702</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1016362</t>
+          <t>1016900</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>98,54%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30891</t>
+          <t>32139</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>53213</t>
+          <t>55171</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9946</t>
+          <t>10572</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22325</t>
+          <t>21925</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>45460</t>
+          <t>44714</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>70646</t>
+          <t>70363</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,69%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>285916</t>
+          <t>283958</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>308238</t>
+          <t>306990</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>296569</t>
+          <t>296969</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>308948</t>
+          <t>308322</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>587378</t>
+          <t>587661</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>612564</t>
+          <t>613310</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>93,2%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28524</t>
+          <t>27916</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46649</t>
+          <t>45614</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12085</t>
+          <t>8944</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>74681</t>
+          <t>74460</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30317</t>
+          <t>29692</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>113895</t>
+          <t>113984</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,25%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>161435</t>
+          <t>162470</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>179560</t>
+          <t>180168</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>77,58%</t>
+          <t>78,08%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>377961</t>
+          <t>378182</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>440557</t>
+          <t>443698</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,5%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>546832</t>
+          <t>546743</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>630410</t>
+          <t>631035</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>82,75%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>95,51%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>31435</t>
+          <t>29571</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>47195</t>
+          <t>46905</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>52971</t>
+          <t>53185</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>73301</t>
+          <t>71614</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>88421</t>
+          <t>88659</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>114402</t>
+          <t>113522</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>29,46%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>104580</t>
+          <t>104870</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>120340</t>
+          <t>122204</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>69,1%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>79,29%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>160303</t>
+          <t>161990</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>180633</t>
+          <t>180419</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>69,34%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>77,23%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>270977</t>
+          <t>271857</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>296958</t>
+          <t>296720</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>70,31%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,06%</t>
+          <t>76,99%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>101159</t>
+          <t>99360</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>174507</t>
+          <t>175727</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>93524</t>
+          <t>91748</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>153894</t>
+          <t>153863</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>223315</t>
+          <t>219324</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>318768</t>
+          <t>317059</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1928018</t>
+          <t>1926798</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2001366</t>
+          <t>2003165</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2077442</t>
+          <t>2077473</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2137812</t>
+          <t>2139588</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4015093</t>
+          <t>4016802</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4110546</t>
+          <t>4114537</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,94%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_DIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la diabetes en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1649</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
+      <c r="W4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>1617</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>1,13%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76467</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75232</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>219655</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>66242</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>460920</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="T5" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
+      <c r="V5" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="W5" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>722</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>142709</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>141506</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>143123</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>99,71%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>98,87%</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1108,72 +1108,72 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1221,72 +1221,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67393</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>65983</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>67973</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>142376</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>140988</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>142957</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,95%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>14118</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>5895</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>2674</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2566</t>
+          <t>11685</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2294</t>
+          <t>12390</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>6897</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>4376</t>
+          <t>20735</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102927</t>
+          <t>361823</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>101370</t>
+          <t>354200</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103640</t>
+          <t>365539</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>485</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109454</t>
+          <t>367490</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>108149</t>
+          <t>361700</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110200</t>
+          <t>370711</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>99,28%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>792</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>212381</t>
+          <t>729313</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>210299</t>
+          <t>720968</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>213625</t>
+          <t>734806</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>99,07%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4382</t>
+          <t>24230</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2791</t>
+          <t>15527</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6527</t>
+          <t>36529</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>11311</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>6933</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>17369</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>6936</t>
+          <t>35541</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>4910</t>
+          <t>24863</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>9660</t>
+          <t>47965</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>140396</t>
+          <t>399711</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>138251</t>
+          <t>387412</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>141987</t>
+          <t>408414</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>642</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>149989</t>
+          <t>429981</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>147871</t>
+          <t>423923</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>151173</t>
+          <t>434359</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>98,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>290385</t>
+          <t>829693</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>287661</t>
+          <t>817269</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>292411</t>
+          <t>840371</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>97,13%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11317</t>
+          <t>45532</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8700</t>
+          <t>35913</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14323</t>
+          <t>59077</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>17054</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>11407</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>23962</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>14994</t>
+          <t>62586</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12047</t>
+          <t>49381</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18574</t>
+          <t>77195</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>10,6%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>118265</t>
+          <t>322511</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>115259</t>
+          <t>308966</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>120882</t>
+          <t>332130</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>83,95%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>540</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>148239</t>
+          <t>343312</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>146446</t>
+          <t>336404</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>149504</t>
+          <t>348959</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>887</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>266504</t>
+          <t>665822</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>262924</t>
+          <t>651213</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>269451</t>
+          <t>679027</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>93,22%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14711</t>
+          <t>39723</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11572</t>
+          <t>30297</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17766</t>
+          <t>50112</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9429</t>
+          <t>41316</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7186</t>
+          <t>32165</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12402</t>
+          <t>50908</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>128</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>24139</t>
+          <t>81038</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>20491</t>
+          <t>68196</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>28278</t>
+          <t>94902</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>18,93%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>89755</t>
+          <t>191550</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>86700</t>
+          <t>181161</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>92894</t>
+          <t>200976</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>82,82%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>78,33%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>410</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>106351</t>
+          <t>228716</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>103378</t>
+          <t>219124</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>108594</t>
+          <t>237867</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>88,09%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>671</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>196107</t>
+          <t>420266</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>191968</t>
+          <t>406402</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>199755</t>
+          <t>433108</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>83,83%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>86,4%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>19934</t>
+          <t>42528</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16590</t>
+          <t>32657</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23369</t>
+          <t>51336</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17638</t>
+          <t>68263</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>14617</t>
+          <t>57689</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>21172</t>
+          <t>77956</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>185</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>37572</t>
+          <t>110791</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>33140</t>
+          <t>97338</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>42588</t>
+          <t>124173</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>29,41%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>69289</t>
+          <t>123053</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>65854</t>
+          <t>114245</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>72633</t>
+          <t>132924</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>77,66%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>73,81%</t>
+          <t>69,0%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>81,41%</t>
+          <t>80,28%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>318</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>114674</t>
+          <t>188344</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>111140</t>
+          <t>178651</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>117695</t>
+          <t>198918</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>86,67%</t>
+          <t>73,4%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,0%</t>
+          <t>69,62%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>487</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>183963</t>
+          <t>311397</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>178947</t>
+          <t>298015</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>188395</t>
+          <t>324850</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>76,94%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>51791</t>
+          <t>158507</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>46120</t>
+          <t>137748</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>57747</t>
+          <t>183299</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>35214</t>
+          <t>143839</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>30038</t>
+          <t>126890</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>40203</t>
+          <t>163082</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>444</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>87004</t>
+          <t>302346</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>79875</t>
+          <t>275327</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>95019</t>
+          <t>332929</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3770</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>672081</t>
+          <t>1901888</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>666125</t>
+          <t>1877096</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>677752</t>
+          <t>1922647</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4257</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>762342</t>
+          <t>2060951</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>757353</t>
+          <t>2041708</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>767518</t>
+          <t>2077900</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8027</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1434425</t>
+          <t>3962839</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1426410</t>
+          <t>3932256</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1441554</t>
+          <t>3989858</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>93,54%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4905</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para la diabetes en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3194</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3719</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>169528</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>166977</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>170171</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>99,62%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>98,12%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>170442</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>184353</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>339970</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>336894</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>340613</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>99,81%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>98,91%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>420589</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4095,72 +4095,72 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>413</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4652</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>414</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5013</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -4173,12 +4173,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -4208,72 +4208,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>209781</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>206826</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>211065</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,8%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,8%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>601</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>391993</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>388677</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>393276</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,89%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5334</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2054</t>
+          <t>2029</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11945</t>
+          <t>8676</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4372</t>
+          <t>448</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1830</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8690</t>
+          <t>2215</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9706</t>
+          <t>4869</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5192</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16897</t>
+          <t>8780</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>305435</t>
+          <t>243892</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>298824</t>
+          <t>239637</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>308715</t>
+          <t>246284</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>405</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>318241</t>
+          <t>248203</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>313923</t>
+          <t>246436</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>320783</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>99,82%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>623675</t>
+          <t>492095</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>616484</t>
+          <t>488184</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>628189</t>
+          <t>494513</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,51%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23094</t>
+          <t>5533</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7263</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43796</t>
+          <t>10068</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10398</t>
+          <t>4719</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6359</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16086</t>
+          <t>8633</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>33492</t>
+          <t>10252</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>15066</t>
+          <t>6138</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>50264</t>
+          <t>15591</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>604070</t>
+          <t>291474</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>583368</t>
+          <t>286939</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>619901</t>
+          <t>294223</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>448</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>394404</t>
+          <t>274256</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>388716</t>
+          <t>270342</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>398443</t>
+          <t>276848</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>923</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>998474</t>
+          <t>565731</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>981702</t>
+          <t>560392</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1016900</t>
+          <t>569845</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>98,93%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>41599</t>
+          <t>21344</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32139</t>
+          <t>14661</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>55171</t>
+          <t>29295</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15520</t>
+          <t>16358</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10572</t>
+          <t>10608</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21925</t>
+          <t>22649</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>57119</t>
+          <t>37702</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>44714</t>
+          <t>29596</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>70363</t>
+          <t>48252</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>9,87%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>297530</t>
+          <t>213356</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>283958</t>
+          <t>205405</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>306990</t>
+          <t>220039</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,73%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>389</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>303374</t>
+          <t>237738</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>296969</t>
+          <t>231447</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>308322</t>
+          <t>243488</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>722</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>600905</t>
+          <t>451094</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>587661</t>
+          <t>440544</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>613310</t>
+          <t>459200</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,95%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36625</t>
+          <t>40868</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27916</t>
+          <t>34590</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45614</t>
+          <t>47264</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38067</t>
+          <t>28907</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8944</t>
+          <t>23036</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>74460</t>
+          <t>35299</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>205</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>74692</t>
+          <t>69775</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>29692</t>
+          <t>60878</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>113984</t>
+          <t>79708</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>21,39%</t>
         </is>
       </c>
     </row>
@@ -5545,37 +5545,37 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>171459</t>
+          <t>143180</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>162470</t>
+          <t>136784</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>180168</t>
+          <t>149458</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>78,08%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>81,21%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5585,67 +5585,67 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>414575</t>
+          <t>159767</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>378182</t>
+          <t>153375</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>443698</t>
+          <t>165638</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,59%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>851</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>586035</t>
+          <t>302948</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>546743</t>
+          <t>293015</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>631035</t>
+          <t>311845</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>81,28%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>78,61%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>83,67%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>38549</t>
+          <t>37465</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29571</t>
+          <t>31941</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>46905</t>
+          <t>44367</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>62659</t>
+          <t>52385</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>53185</t>
+          <t>43921</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>71614</t>
+          <t>60967</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>259</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>101209</t>
+          <t>89850</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>88659</t>
+          <t>80653</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>113522</t>
+          <t>102122</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>28,48%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>113226</t>
+          <t>109243</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>104870</t>
+          <t>102341</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>122204</t>
+          <t>114767</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>74,6%</t>
+          <t>74,46%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>80,52%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>397</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>170945</t>
+          <t>159435</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>161990</t>
+          <t>150853</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>180419</t>
+          <t>167899</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>73,18%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>69,34%</t>
+          <t>71,22%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>77,23%</t>
+          <t>79,26%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>751</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>284170</t>
+          <t>268678</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>271857</t>
+          <t>256406</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>296720</t>
+          <t>277875</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>74,94%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>71,52%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>76,99%</t>
+          <t>77,5%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146708</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146708</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146708</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358528</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358528</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358528</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>145201</t>
+          <t>110274</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>99360</t>
+          <t>98165</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>175727</t>
+          <t>123755</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>131016</t>
+          <t>104514</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>91748</t>
+          <t>92400</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>153863</t>
+          <t>118903</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>563</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>276217</t>
+          <t>214789</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>219324</t>
+          <t>197440</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>317059</t>
+          <t>233650</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>2546</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1957324</t>
+          <t>1352887</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1926798</t>
+          <t>1339406</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2003165</t>
+          <t>1364996</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2762</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2100320</t>
+          <t>1459623</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2077473</t>
+          <t>1445234</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2139588</t>
+          <t>1471737</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4461</t>
+          <t>5177</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4057644</t>
+          <t>2812508</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4016802</t>
+          <t>2793647</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4114537</t>
+          <t>2829857</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>93,48%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>2860</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1463161</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1463161</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1463161</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4905</t>
+          <t>5740</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027297</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027297</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027297</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en C.Valenciana (tasa de respuesta: 99,76%)</t>
+          <t>Consumo de medicamentos para la diabetes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,12 +6704,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>414</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -6719,12 +6719,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3194</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6774,12 +6774,12 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>414</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -6789,12 +6789,12 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3719</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,13%</t>
         </is>
       </c>
     </row>
@@ -6817,32 +6817,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>169528</t>
+          <t>76467</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>166977</t>
+          <t>75232</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -6852,12 +6852,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -6887,32 +6887,32 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>722</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>339970</t>
+          <t>142709</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>336894</t>
+          <t>141506</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7087,32 +7087,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>655</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>2065</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -7122,32 +7122,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>655</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>74</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5013</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -7160,12 +7160,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -7195,72 +7195,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>364</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>209781</t>
+          <t>67393</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>206826</t>
+          <t>65983</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>211065</t>
+          <t>67973</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>99,89%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>761</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>391993</t>
+          <t>142376</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>388677</t>
+          <t>140988</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>393276</t>
+          <t>142957</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>99,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>99,95%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,72 +7390,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4421</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>320</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8676</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>515</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2215</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -7465,22 +7465,22 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>2294</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8780</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -7503,102 +7503,102 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>243892</t>
+          <t>102927</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>239637</t>
+          <t>101370</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>246284</t>
+          <t>103640</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>574</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>248203</t>
+          <t>109454</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>246436</t>
+          <t>108149</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110200</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>492095</t>
+          <t>212381</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>488184</t>
+          <t>210299</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>494513</t>
+          <t>213625</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>4382</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>2791</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10068</t>
+          <t>6527</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4719</t>
+          <t>2555</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2127</t>
+          <t>1371</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8633</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>10252</t>
+          <t>6936</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>6138</t>
+          <t>4910</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>15591</t>
+          <t>9660</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>778</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>291474</t>
+          <t>140396</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>286939</t>
+          <t>138251</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>294223</t>
+          <t>141987</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>799</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>274256</t>
+          <t>149989</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>270342</t>
+          <t>147871</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>276848</t>
+          <t>151173</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>565731</t>
+          <t>290385</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>560392</t>
+          <t>287661</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>569845</t>
+          <t>292411</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>98,35%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21344</t>
+          <t>11317</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14661</t>
+          <t>8700</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29295</t>
+          <t>14323</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16358</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10608</t>
+          <t>2411</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22649</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>37702</t>
+          <t>14994</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>29596</t>
+          <t>12047</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>48252</t>
+          <t>18574</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>665</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>213356</t>
+          <t>118265</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>205405</t>
+          <t>115259</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>220039</t>
+          <t>120882</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>832</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>237738</t>
+          <t>148239</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>231447</t>
+          <t>146446</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>243488</t>
+          <t>149504</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>451094</t>
+          <t>266504</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>440544</t>
+          <t>262924</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>459200</t>
+          <t>269451</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>95,72%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40868</t>
+          <t>14711</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34590</t>
+          <t>11572</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47264</t>
+          <t>17766</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28907</t>
+          <t>9429</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23036</t>
+          <t>7186</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35299</t>
+          <t>12402</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>144</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>69775</t>
+          <t>24139</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>60878</t>
+          <t>20491</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>79708</t>
+          <t>28278</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>12,84%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>556</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>143180</t>
+          <t>89755</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>136784</t>
+          <t>86700</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>149458</t>
+          <t>92894</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>74,32%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>649</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>159767</t>
+          <t>106351</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>153375</t>
+          <t>103378</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>165638</t>
+          <t>108594</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>89,29%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>302948</t>
+          <t>196107</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>293015</t>
+          <t>191968</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>311845</t>
+          <t>199755</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>81,28%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>87,16%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>83,67%</t>
+          <t>90,7%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>37465</t>
+          <t>19934</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>31941</t>
+          <t>16590</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>44367</t>
+          <t>23369</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>52385</t>
+          <t>17638</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>43921</t>
+          <t>14617</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>60967</t>
+          <t>21172</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>234</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>89850</t>
+          <t>37572</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>80653</t>
+          <t>33140</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>102122</t>
+          <t>42588</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>19,22%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>109243</t>
+          <t>69289</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>102341</t>
+          <t>65854</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>114767</t>
+          <t>72633</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>74,46%</t>
+          <t>77,66%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>78,23%</t>
+          <t>81,41%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>159435</t>
+          <t>114674</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>150853</t>
+          <t>111140</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>167899</t>
+          <t>117695</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>86,67%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>71,22%</t>
+          <t>84,0%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>79,26%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>268678</t>
+          <t>183963</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>256406</t>
+          <t>178947</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>277875</t>
+          <t>188395</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>74,94%</t>
+          <t>83,04%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,5%</t>
+          <t>85,04%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146708</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146708</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146708</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358528</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358528</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358528</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>110274</t>
+          <t>51791</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>98165</t>
+          <t>46120</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>123755</t>
+          <t>57747</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>218</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>104514</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>92400</t>
+          <t>30038</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>118903</t>
+          <t>40203</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>526</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>214789</t>
+          <t>87004</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>197440</t>
+          <t>79875</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>233650</t>
+          <t>95019</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2546</t>
+          <t>3770</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1352887</t>
+          <t>672081</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1339406</t>
+          <t>666125</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1364996</t>
+          <t>677752</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1459623</t>
+          <t>762342</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1445234</t>
+          <t>757353</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1471737</t>
+          <t>767518</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5177</t>
+          <t>8027</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2812508</t>
+          <t>1434425</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2793647</t>
+          <t>1426410</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2829857</t>
+          <t>1441554</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>94,75%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1463161</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1463161</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1463161</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5740</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027297</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027297</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027297</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
